--- a/data/Prioridades/PC_Robos_Norm.xlsx
+++ b/data/Prioridades/PC_Robos_Norm.xlsx
@@ -340,7 +340,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>6.832532978477205</v>
+        <v>0.7789538212688253</v>
       </c>
       <c r="C3" s="3">
         <v>0.261</v>
@@ -351,7 +351,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>69.57486341587595</v>
+        <v>7.931993287521896</v>
       </c>
       <c r="C4" s="3">
         <v>0.139</v>
@@ -362,7 +362,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>129.81812659106689</v>
+        <v>14.800122604107681</v>
       </c>
       <c r="C5" s="3">
         <v>0.075</v>
@@ -373,7 +373,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>139.1497268317519</v>
+        <v>15.863986575043793</v>
       </c>
       <c r="C6" s="3">
         <v>0.074</v>
@@ -384,7 +384,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>208.72459024762787</v>
+        <v>23.79597986256569</v>
       </c>
       <c r="C7" s="3">
         <v>0.047</v>
@@ -395,7 +395,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>245.97118722517936</v>
+        <v>28.042337565677713</v>
       </c>
       <c r="C8" s="3">
         <v>0.032</v>
@@ -406,7 +406,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>278.2994536635038</v>
+        <v>31.727973150087585</v>
       </c>
       <c r="C9" s="3">
         <v>0.031</v>
@@ -417,7 +417,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>347.87431707937975</v>
+        <v>39.65996643760948</v>
       </c>
       <c r="C10" s="3">
         <v>0.022</v>
